--- a/biology/Virologie/Benyvirus/Benyvirus.xlsx
+++ b/biology/Virologie/Benyvirus/Benyvirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Banyvirus est un genre de virus de la famille des Benyviridae, dont c'est l'unique genre (famille monotypique), qui comprend quatre espèces. Ce sont des virus à ARN à simple brin à polarité positive, rattachés au  Groupe IV  de la classification Baltimore, qui infectent principalement les plantes (phytovirus).
-Le virus des nervures jaunes nécrotiques de la betterave (BNYVV, Beet necrotic yellow vein virus) est responsable de la rhizomanie de la betterave sucrière[4]. 
+Le virus des nervures jaunes nécrotiques de la betterave (BNYVV, Beet necrotic yellow vein virus) est responsable de la rhizomanie de la betterave sucrière. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Benyvirus » dérive de celui de l'espèce type, « Beny- étant l'acronyme de BEet Necrotic Yellow vein virus[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Benyvirus » dérive de celui de l'espèce type, « Beny- étant l'acronyme de BEet Necrotic Yellow vein virus.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (21 décembre 2020)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (21 décembre 2020) :
 Beet necrotic yellow vein virus  (espèce-type)
 Beet soil-borne mosaic virus
 Burdock mottle virus
